--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoHo\Documents\GitHub\queen\配置表\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoHo\Downloads\XXXX\luban_examples-main\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C0E89-AAA1-4A45-98B5-ED5624302842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8E8FC9-7018-45CB-991B-12033D650D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -31,7 +31,7 @@
     <t>value_type</t>
   </si>
   <si>
-    <t>define_from_file</t>
+    <t>read_schema_from_file</t>
   </si>
   <si>
     <t>input</t>
@@ -49,18 +49,12 @@
     <t>comment</t>
   </si>
   <si>
-    <t>patch_input</t>
-  </si>
-  <si>
     <t>tags</t>
   </si>
   <si>
     <t>output</t>
   </si>
   <si>
-    <t>options</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>注释</t>
   </si>
   <si>
-    <t>分支文件列表</t>
-  </si>
-  <si>
     <t>输出文件名</t>
   </si>
   <si>
@@ -109,31 +100,30 @@
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
   </si>
   <si>
-    <t>用于本地化。可以多个，以逗号分隔</t>
-  </si>
-  <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
+    <t>Conf.ItemInfos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>ItemInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ItemInfo@ItemData.xlsx</t>
-  </si>
-  <si>
-    <t>Conf.ItemInfos</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Conf.ItemInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,10 +133,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,20 +150,19 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -201,31 +196,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,27 +496,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.375" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="57.125" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="32.125" customWidth="1"/>
-    <col min="8" max="8" width="42.875" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="11" max="11" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,95 +546,83 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{399AFF6C-39F7-4AAC-BCE0-DE34CE73EF60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoHo\Downloads\XXXX\luban_examples-main\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8E8FC9-7018-45CB-991B-12033D650D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFB334C-3CCE-9F4B-9382-5B33C018F8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -116,6 +116,54 @@
   </si>
   <si>
     <t>Conf.ItemInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.AttributeInfos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributeInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributeInfo@AttributeData.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.AttributeInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.ModelInfos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelInfo@ModelData.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.ModelInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroInfo@HeroData.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.HeroInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.HeroInfos</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,9 +269,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,23 +544,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="11" max="11" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -579,7 +627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -602,7 +650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14.25">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -617,12 +665,66 @@
       </c>
       <c r="K4" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{399AFF6C-39F7-4AAC-BCE0-DE34CE73EF60}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{B5C04D7B-9FD8-014E-A7E9-4560EC67A670}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{94C5ED0A-C419-8143-B32A-3E5F2B1CE78C}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{7BFEF5EA-5AF8-AF4E-BAD1-7CA4E0713742}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFB334C-3CCE-9F4B-9382-5B33C018F8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A059B-60AE-3A4E-A735-6226AC3E7B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -164,6 +164,53 @@
   </si>
   <si>
     <t>Conf.HeroInfos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.ColliderInfos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderInfo@ColliderData.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.ColliderInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.SkillInfos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillInfo@SkillData.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.SkillInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.SkillTriggerInfos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriggerInfo</t>
+  </si>
+  <si>
+    <t>SkillTriggerInfo@SkillTriggerData.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.SkillTriggerInfo</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -544,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -560,7 +607,7 @@
     <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.25">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -627,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="14.25">
+    <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -650,7 +697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25">
+    <row r="4" spans="1:11">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -716,6 +763,57 @@
       </c>
       <c r="K7" s="4" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -725,6 +823,9 @@
     <hyperlink ref="E5" r:id="rId2" xr:uid="{B5C04D7B-9FD8-014E-A7E9-4560EC67A670}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{94C5ED0A-C419-8143-B32A-3E5F2B1CE78C}"/>
     <hyperlink ref="E7" r:id="rId4" xr:uid="{7BFEF5EA-5AF8-AF4E-BAD1-7CA4E0713742}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{F83E8E4C-1660-314C-98FD-5DA6BC3882C7}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{43EA5D36-B954-CE4A-AC49-BC5B3D57D88D}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{E67F8D6C-3EDF-674B-95D4-2A6DAEC6ABF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A059B-60AE-3A4E-A735-6226AC3E7B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62F0B62-2A55-5747-8270-9FC63E76F852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,18 +199,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Conf.SkillTriggerInfos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillTriggerInfo</t>
-  </si>
-  <si>
-    <t>SkillTriggerInfo@SkillTriggerData.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conf.SkillTriggerInfo</t>
+    <t>SkillBindingInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.SkillBindingInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.SkillBindingInfos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBindingInfo@SkillBindingData.xlsx</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +595,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -801,19 +802,19 @@
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wantdabo\Documents\GitHub\goblin\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62F0B62-2A55-5747-8270-9FC63E76F852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DD477-BAE3-45C6-817B-DD821274F6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -104,140 +104,159 @@
   </si>
   <si>
     <t>Conf.ItemInfos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ItemInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ItemInfo@ItemData.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.ItemInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.AttributeInfos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AttributeInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AttributeInfo@AttributeData.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.AttributeInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.ModelInfos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ModelInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ModelInfo@ModelData.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.ModelInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HeroInfo@HeroData.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HeroInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.HeroInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.HeroInfos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.ColliderInfos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ColliderInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ColliderInfo@ColliderData.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.ColliderInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.SkillInfos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SkillInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SkillInfo@SkillData.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.SkillInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SkillBindingInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.SkillBindingInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Conf.SkillBindingInfos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SkillBindingInfo@SkillBindingData.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.PipelineInfos</t>
+  </si>
+  <si>
+    <t>PipelineInfo</t>
+  </si>
+  <si>
+    <t>PipelineInfo@PipelineData.xlsx</t>
+  </si>
+  <si>
+    <t>Conf.PipelineInfo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,21 +264,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -292,24 +311,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
@@ -317,9 +339,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,20 +614,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
@@ -817,8 +839,25 @@
         <v>52</v>
       </c>
     </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{399AFF6C-39F7-4AAC-BCE0-DE34CE73EF60}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{B5C04D7B-9FD8-014E-A7E9-4560EC67A670}"/>
@@ -827,6 +866,7 @@
     <hyperlink ref="E8" r:id="rId5" xr:uid="{F83E8E4C-1660-314C-98FD-5DA6BC3882C7}"/>
     <hyperlink ref="E9" r:id="rId6" xr:uid="{43EA5D36-B954-CE4A-AC49-BC5B3D57D88D}"/>
     <hyperlink ref="E10" r:id="rId7" xr:uid="{E67F8D6C-3EDF-674B-95D4-2A6DAEC6ABF5}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{98683D0E-D7EE-416F-B1A1-88C1E844BB50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wantdabo\Documents\GitHub\goblin\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DD477-BAE3-45C6-817B-DD821274F6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA67810-F537-9C48-997D-D331C827C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="760" windowWidth="38640" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -225,6 +225,22 @@
   </si>
   <si>
     <t>Conf.PipelineInfo</t>
+  </si>
+  <si>
+    <t>Conf.EffectInfos</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectInfo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectInfo@EffectData.xlsx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.EffectInfo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -235,28 +251,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -264,21 +280,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -339,9 +355,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,20 +630,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
@@ -854,6 +870,23 @@
       </c>
       <c r="K11" s="5" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -867,6 +900,7 @@
     <hyperlink ref="E9" r:id="rId6" xr:uid="{43EA5D36-B954-CE4A-AC49-BC5B3D57D88D}"/>
     <hyperlink ref="E10" r:id="rId7" xr:uid="{E67F8D6C-3EDF-674B-95D4-2A6DAEC6ABF5}"/>
     <hyperlink ref="E11" r:id="rId8" xr:uid="{98683D0E-D7EE-416F-B1A1-88C1E844BB50}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{03F2D6DC-08C8-D64F-BC48-94FE71DB72EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA67810-F537-9C48-997D-D331C827C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF471F-B8C1-144E-A3FB-C4B51234943B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="760" windowWidth="38640" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -240,6 +240,22 @@
   </si>
   <si>
     <t>Conf.EffectInfo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.BuffInfos</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffInfo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffInfo@BuffData.xlsx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conf.BuffInfo</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -840,52 +856,69 @@
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -898,9 +931,10 @@
     <hyperlink ref="E7" r:id="rId4" xr:uid="{7BFEF5EA-5AF8-AF4E-BAD1-7CA4E0713742}"/>
     <hyperlink ref="E8" r:id="rId5" xr:uid="{F83E8E4C-1660-314C-98FD-5DA6BC3882C7}"/>
     <hyperlink ref="E9" r:id="rId6" xr:uid="{43EA5D36-B954-CE4A-AC49-BC5B3D57D88D}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{E67F8D6C-3EDF-674B-95D4-2A6DAEC6ABF5}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{98683D0E-D7EE-416F-B1A1-88C1E844BB50}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{03F2D6DC-08C8-D64F-BC48-94FE71DB72EA}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{E67F8D6C-3EDF-674B-95D4-2A6DAEC6ABF5}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{98683D0E-D7EE-416F-B1A1-88C1E844BB50}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{03F2D6DC-08C8-D64F-BC48-94FE71DB72EA}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{40A3D423-DAB9-2741-952B-DCA352E597FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
